--- a/data-raw/crosswalk_tables.xlsx
+++ b/data-raw/crosswalk_tables.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\R\Projects\cffr\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q31407\Documents\R\Projects\misc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B77427-11D6-4B0D-95D5-CAF670E72822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="crosswalk_tables" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosswalk_tables!$A$1:$N$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="399">
   <si>
     <t>table</t>
   </si>
@@ -160,9 +162,6 @@
     <t>[article]{.underline}</t>
   </si>
   <si>
-    <t>**\@book**</t>
-  </si>
-  <si>
     <t>[book]{.underline}</t>
   </si>
   <si>
@@ -178,9 +177,6 @@
     <t>[conference-paper]{.underline}</t>
   </si>
   <si>
-    <t>**\@inbook**</t>
-  </si>
-  <si>
     <t>See [Entry Models](link_to_entry_models)</t>
   </si>
   <si>
@@ -199,18 +195,12 @@
     <t>[manual]{.underline}</t>
   </si>
   <si>
-    <t>**\@mastersthesis**</t>
-  </si>
-  <si>
     <t>[thesis]{.underline}</t>
   </si>
   <si>
     <t>**\@misc**</t>
   </si>
   <si>
-    <t>**\@phdthesis**</t>
-  </si>
-  <si>
     <t>**\@proceedings**</t>
   </si>
   <si>
@@ -247,9 +237,6 @@
     <t>**\@misc**, **\@incollection**</t>
   </si>
   <si>
-    <t>Under specific conditions, see [Entry Models](link_to_entry_models)</t>
-  </si>
-  <si>
     <t>\&lt;[any other value]{.underline}\&gt;</t>
   </si>
   <si>
@@ -1214,12 +1201,30 @@
   </si>
   <si>
     <t xml:space="preserve"> [collection-title, conference]{.underline}                   </t>
+  </si>
+  <si>
+    <t>**\@inbook** is a [book]{.underline} with **chapter** and/or **pages**</t>
+  </si>
+  <si>
+    <t>Needs additional fields</t>
+  </si>
+  <si>
+    <t>**\@mastersthesis, \@phdthesis**</t>
+  </si>
+  <si>
+    <t>Identified by [thesis-type]{.underline}</t>
+  </si>
+  <si>
+    <t>**\@inbook** is a [book]{.underline} with [section]{.underline} or [start/end]{.underline} (reference to page number or range).</t>
+  </si>
+  <si>
+    <t>**\@incollection** is a [generic]{.underline} with [year,publisher,collection-title]{.underline}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2053,27 +2058,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N251"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B140" sqref="B139:B140"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +2295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2334,7 +2339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +2449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2490,7 +2495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2513,7 +2518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2527,7 +2532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2547,7 +2552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -2680,40 +2685,43 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
       <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
       <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
       <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2721,13 +2729,13 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2735,74 +2743,68 @@
         <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>43</v>
       </c>
       <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
       <c r="B33" t="s">
+        <v>395</v>
+      </c>
+      <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="C33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
       <c r="B36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
         <v>62</v>
       </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -2813,391 +2815,391 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
       <c r="C39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
         <v>70</v>
       </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D47" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
         <v>71</v>
       </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>72</v>
       </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B49" t="s">
         <v>73</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" t="s">
-        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
         <v>76</v>
       </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
         <v>78</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>81</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
         <v>85</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>88</v>
       </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
         <v>90</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" t="s">
         <v>92</v>
       </c>
-      <c r="C59" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C61" t="s">
         <v>94</v>
       </c>
-      <c r="C60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
         <v>95</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>98</v>
       </c>
-      <c r="C63" t="s">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
         <v>100</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
         <v>102</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
         <v>104</v>
       </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" t="s">
         <v>105</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C69" t="s">
         <v>107</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
         <v>109</v>
       </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C71" t="s">
         <v>110</v>
       </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
         <v>111</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>77</v>
       </c>
       <c r="B73" t="s">
         <v>114</v>
@@ -3206,9 +3208,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
         <v>116</v>
@@ -3217,235 +3219,238 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
         <v>118</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>119</v>
       </c>
-      <c r="C75" t="s">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>121</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>123</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>125</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>127</v>
       </c>
-      <c r="C79" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>129</v>
       </c>
-      <c r="C80" t="s">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>118</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>131</v>
       </c>
-      <c r="C81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>133</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>135</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>137</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>118</v>
-      </c>
       <c r="B85" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" t="s">
         <v>139</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>141</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
         <v>143</v>
       </c>
-      <c r="B87" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>145</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>147</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C91" t="s">
         <v>149</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>143</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D92" t="s">
         <v>151</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>143</v>
-      </c>
-      <c r="B92" t="s">
-        <v>28</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>143</v>
-      </c>
-      <c r="B93" t="s">
-        <v>26</v>
-      </c>
-      <c r="C93" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>143</v>
-      </c>
-      <c r="B94" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>155</v>
       </c>
-      <c r="D94" t="s">
+      <c r="B95" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>143</v>
-      </c>
-      <c r="B95" t="s">
-        <v>22</v>
       </c>
       <c r="C95" t="s">
         <v>157</v>
@@ -3454,294 +3459,297 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" t="s">
         <v>143</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>163</v>
+      </c>
+      <c r="C101" t="s">
+        <v>164</v>
+      </c>
+      <c r="D101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" t="s">
+        <v>150</v>
+      </c>
+      <c r="D102" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" t="s">
         <v>21</v>
       </c>
-      <c r="C96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>160</v>
-      </c>
-      <c r="B97" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" t="s">
-        <v>162</v>
-      </c>
-      <c r="D97" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" t="s">
-        <v>145</v>
-      </c>
-      <c r="C98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>160</v>
-      </c>
-      <c r="B99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C109" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>172</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" t="s">
         <v>147</v>
       </c>
-      <c r="C100" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>160</v>
-      </c>
-      <c r="B101" t="s">
-        <v>166</v>
-      </c>
-      <c r="C101" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>160</v>
-      </c>
-      <c r="B102" t="s">
-        <v>151</v>
-      </c>
-      <c r="C102" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>160</v>
-      </c>
-      <c r="B103" t="s">
-        <v>168</v>
-      </c>
-      <c r="C103" t="s">
-        <v>169</v>
-      </c>
-      <c r="D103" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>160</v>
-      </c>
-      <c r="B104" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" t="s">
-        <v>155</v>
-      </c>
-      <c r="D104" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>160</v>
-      </c>
-      <c r="B105" t="s">
-        <v>28</v>
-      </c>
-      <c r="C105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>160</v>
-      </c>
-      <c r="B106" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>172</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>160</v>
-      </c>
-      <c r="B107" t="s">
-        <v>30</v>
-      </c>
-      <c r="C107" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>160</v>
-      </c>
-      <c r="B108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s">
-        <v>173</v>
-      </c>
-      <c r="D108" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>160</v>
-      </c>
-      <c r="B109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>160</v>
-      </c>
-      <c r="B110" t="s">
-        <v>22</v>
-      </c>
-      <c r="C110" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>160</v>
-      </c>
-      <c r="B111" t="s">
-        <v>21</v>
-      </c>
-      <c r="C111" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>177</v>
-      </c>
-      <c r="B112" t="s">
-        <v>48</v>
-      </c>
-      <c r="C112" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>177</v>
-      </c>
-      <c r="B113" t="s">
-        <v>147</v>
-      </c>
-      <c r="C113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>177</v>
-      </c>
-      <c r="B114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>177</v>
-      </c>
-      <c r="B115" t="s">
-        <v>36</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>177</v>
-      </c>
-      <c r="B116" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>177</v>
-      </c>
-      <c r="B117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" t="s">
-        <v>157</v>
-      </c>
-      <c r="D117" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C118" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>177</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+      <c r="D119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B120" t="s">
         <v>183</v>
@@ -3750,138 +3758,138 @@
         <v>184</v>
       </c>
       <c r="D120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>177</v>
+      </c>
+      <c r="B121" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>182</v>
-      </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" t="s">
+        <v>389</v>
+      </c>
+      <c r="C122" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" t="s">
         <v>186</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C123" t="s">
         <v>187</v>
       </c>
-      <c r="D121" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>182</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="D123" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" t="s">
         <v>188</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C124" t="s">
         <v>189</v>
       </c>
-      <c r="D122" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>182</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="D124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" t="s">
         <v>190</v>
       </c>
-      <c r="C123" t="s">
-        <v>397</v>
-      </c>
-      <c r="D123" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>182</v>
-      </c>
-      <c r="B124" t="s">
-        <v>394</v>
-      </c>
-      <c r="C124" t="s">
-        <v>393</v>
-      </c>
-      <c r="D124" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>182</v>
-      </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>191</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" t="s">
         <v>192</v>
       </c>
-      <c r="D125" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>182</v>
-      </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>390</v>
+      </c>
+      <c r="D126" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" t="s">
         <v>193</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>194</v>
       </c>
-      <c r="D126" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>182</v>
-      </c>
-      <c r="B127" t="s">
+      <c r="D127" t="s">
         <v>195</v>
       </c>
-      <c r="C127" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" t="s">
         <v>196</v>
       </c>
-      <c r="D127" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>182</v>
-      </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>197</v>
       </c>
-      <c r="C128" t="s">
-        <v>395</v>
-      </c>
       <c r="D128" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D129" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
         <v>201</v>
@@ -3890,40 +3898,37 @@
         <v>202</v>
       </c>
       <c r="D130" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>182</v>
-      </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>204</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" t="s">
         <v>205</v>
       </c>
-      <c r="D131" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>182</v>
-      </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>206</v>
       </c>
-      <c r="C132" t="s">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>207</v>
-      </c>
-      <c r="D132" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>182</v>
       </c>
       <c r="B133" t="s">
         <v>208</v>
@@ -3932,37 +3937,40 @@
         <v>209</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B134" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C134" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
+        <v>214</v>
+      </c>
+      <c r="C135" t="s">
+        <v>215</v>
+      </c>
+      <c r="D135" t="s">
         <v>213</v>
       </c>
-      <c r="C135" t="s">
-        <v>214</v>
-      </c>
-      <c r="D135" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
         <v>216</v>
@@ -3971,149 +3979,149 @@
         <v>217</v>
       </c>
       <c r="D136" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>219</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
         <v>220</v>
       </c>
-      <c r="D137" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>212</v>
-      </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>221</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" t="s">
         <v>222</v>
       </c>
-      <c r="D138" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>212</v>
-      </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>223</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" t="s">
         <v>224</v>
       </c>
-      <c r="D139" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>212</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>225</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>207</v>
+      </c>
+      <c r="B141" t="s">
         <v>226</v>
       </c>
-      <c r="D140" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>212</v>
-      </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>227</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" t="s">
         <v>228</v>
       </c>
-      <c r="D141" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>212</v>
-      </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>229</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>207</v>
+      </c>
+      <c r="B143" t="s">
         <v>230</v>
       </c>
-      <c r="D142" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>212</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>231</v>
       </c>
-      <c r="C143" t="s">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>207</v>
+      </c>
+      <c r="B144" t="s">
         <v>232</v>
       </c>
-      <c r="D143" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>212</v>
-      </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>233</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145" t="s">
         <v>234</v>
       </c>
-      <c r="D144" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>212</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>235</v>
       </c>
       <c r="D145" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>212</v>
-      </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>237</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>238</v>
       </c>
-      <c r="D146" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
         <v>239</v>
@@ -4122,12 +4130,12 @@
         <v>240</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B148" t="s">
         <v>241</v>
@@ -4136,26 +4144,26 @@
         <v>242</v>
       </c>
       <c r="D148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>212</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>244</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>245</v>
-      </c>
-      <c r="D149" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>212</v>
       </c>
       <c r="B150" t="s">
         <v>246</v>
@@ -4164,166 +4172,166 @@
         <v>247</v>
       </c>
       <c r="D150" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="B151" t="s">
+        <v>249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>250</v>
+      </c>
+      <c r="D151" t="s">
         <v>248</v>
       </c>
-      <c r="C151" t="s">
-        <v>249</v>
-      </c>
-      <c r="D151" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
+        <v>76</v>
+      </c>
+      <c r="C152" t="s">
         <v>251</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>245</v>
+      </c>
+      <c r="B153" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" t="s">
         <v>252</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D153" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>245</v>
+      </c>
+      <c r="B154" t="s">
+        <v>73</v>
+      </c>
+      <c r="C154" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>250</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="D154" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>245</v>
+      </c>
+      <c r="B155" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" t="s">
         <v>254</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D155" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" t="s">
         <v>255</v>
       </c>
-      <c r="D153" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>250</v>
-      </c>
-      <c r="B154" t="s">
-        <v>81</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>245</v>
+      </c>
+      <c r="B157" t="s">
+        <v>111</v>
+      </c>
+      <c r="C157" t="s">
         <v>256</v>
       </c>
-      <c r="D154" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>250</v>
-      </c>
-      <c r="B155" t="s">
-        <v>104</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="D157" t="s">
         <v>257</v>
       </c>
-      <c r="D155" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>250</v>
-      </c>
-      <c r="B156" t="s">
-        <v>78</v>
-      </c>
-      <c r="C156" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>245</v>
+      </c>
+      <c r="B158" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>258</v>
       </c>
-      <c r="D156" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>250</v>
-      </c>
-      <c r="B157" t="s">
-        <v>88</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B159" t="s">
         <v>259</v>
       </c>
-      <c r="D157" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>250</v>
-      </c>
-      <c r="B158" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>260</v>
       </c>
-      <c r="D158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>250</v>
-      </c>
-      <c r="B159" t="s">
-        <v>116</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>261</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>258</v>
+      </c>
+      <c r="B160" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>250</v>
-      </c>
-      <c r="B160" t="s">
-        <v>100</v>
-      </c>
       <c r="C160" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="D160" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B161" t="s">
+        <v>265</v>
+      </c>
+      <c r="C161" t="s">
+        <v>266</v>
+      </c>
+      <c r="D161" t="s">
         <v>264</v>
       </c>
-      <c r="C161" t="s">
-        <v>265</v>
-      </c>
-      <c r="D161" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
         <v>267</v>
@@ -4332,82 +4340,82 @@
         <v>268</v>
       </c>
       <c r="D162" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>258</v>
+      </c>
+      <c r="B163" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>263</v>
-      </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>270</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>258</v>
+      </c>
+      <c r="B164" t="s">
         <v>271</v>
       </c>
-      <c r="D163" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>263</v>
-      </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>272</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B165" t="s">
         <v>273</v>
       </c>
-      <c r="D164" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>263</v>
-      </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>274</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" t="s">
         <v>275</v>
       </c>
-      <c r="D165" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>263</v>
-      </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>276</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>258</v>
+      </c>
+      <c r="B167" t="s">
         <v>277</v>
       </c>
-      <c r="D166" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>263</v>
-      </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>278</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>279</v>
-      </c>
-      <c r="D167" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>263</v>
       </c>
       <c r="B168" t="s">
         <v>280</v>
@@ -4416,264 +4424,264 @@
         <v>281</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="B169" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" t="s">
         <v>282</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>279</v>
+      </c>
+      <c r="B170" t="s">
+        <v>106</v>
+      </c>
+      <c r="C170" t="s">
         <v>283</v>
       </c>
-      <c r="D169" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="D170" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>279</v>
+      </c>
+      <c r="B171" t="s">
+        <v>87</v>
+      </c>
+      <c r="C171" t="s">
         <v>284</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D171" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>279</v>
+      </c>
+      <c r="B172" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" t="s">
         <v>285</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>279</v>
+      </c>
+      <c r="B173" t="s">
+        <v>111</v>
+      </c>
+      <c r="C173" t="s">
         <v>286</v>
       </c>
-      <c r="D170" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>284</v>
-      </c>
-      <c r="B171" t="s">
-        <v>81</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="D173" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>279</v>
+      </c>
+      <c r="B174" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" t="s">
         <v>287</v>
       </c>
-      <c r="D171" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>284</v>
-      </c>
-      <c r="B172" t="s">
-        <v>111</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="D174" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>288</v>
       </c>
-      <c r="D172" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>284</v>
-      </c>
-      <c r="B173" t="s">
-        <v>92</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B175" t="s">
         <v>289</v>
       </c>
-      <c r="D173" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>284</v>
-      </c>
-      <c r="B174" t="s">
-        <v>98</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>290</v>
       </c>
-      <c r="D174" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>284</v>
-      </c>
-      <c r="B175" t="s">
-        <v>116</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>288</v>
+      </c>
+      <c r="B176" t="s">
         <v>291</v>
-      </c>
-      <c r="D175" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>284</v>
-      </c>
-      <c r="B176" t="s">
-        <v>100</v>
       </c>
       <c r="C176" t="s">
         <v>292</v>
       </c>
       <c r="D176" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>288</v>
+      </c>
+      <c r="B177" t="s">
         <v>293</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>294</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>288</v>
+      </c>
+      <c r="B178" t="s">
         <v>295</v>
       </c>
-      <c r="D177" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>293</v>
-      </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>296</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>288</v>
+      </c>
+      <c r="B179" t="s">
         <v>297</v>
       </c>
-      <c r="D178" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>293</v>
-      </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>298</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>288</v>
+      </c>
+      <c r="B180" t="s">
         <v>299</v>
       </c>
-      <c r="D179" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>293</v>
-      </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>300</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>288</v>
+      </c>
+      <c r="B181" t="s">
         <v>301</v>
       </c>
-      <c r="D180" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>293</v>
-      </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>302</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>288</v>
+      </c>
+      <c r="B182" t="s">
         <v>303</v>
       </c>
-      <c r="D181" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>293</v>
-      </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>304</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>288</v>
+      </c>
+      <c r="B183" t="s">
         <v>305</v>
       </c>
-      <c r="D182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>293</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>306</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>288</v>
+      </c>
+      <c r="B184" t="s">
         <v>307</v>
       </c>
-      <c r="D183" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>293</v>
-      </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>308</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>288</v>
+      </c>
+      <c r="B185" t="s">
         <v>309</v>
       </c>
-      <c r="D184" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>293</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>310</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>288</v>
+      </c>
+      <c r="B186" t="s">
         <v>311</v>
       </c>
-      <c r="D185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>293</v>
-      </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>312</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>313</v>
-      </c>
-      <c r="D186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>293</v>
       </c>
       <c r="B187" t="s">
         <v>314</v>
@@ -4682,874 +4690,847 @@
         <v>315</v>
       </c>
       <c r="D187" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="B188" t="s">
         <v>316</v>
       </c>
       <c r="C188" t="s">
+        <v>263</v>
+      </c>
+      <c r="D188" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>313</v>
+      </c>
+      <c r="B189" t="s">
+        <v>291</v>
+      </c>
+      <c r="C189" t="s">
+        <v>266</v>
+      </c>
+      <c r="D189" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>313</v>
+      </c>
+      <c r="B190" t="s">
         <v>317</v>
-      </c>
-      <c r="D188" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>318</v>
-      </c>
-      <c r="B189" t="s">
-        <v>319</v>
-      </c>
-      <c r="C189" t="s">
-        <v>320</v>
-      </c>
-      <c r="D189" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>318</v>
-      </c>
-      <c r="B190" t="s">
-        <v>321</v>
       </c>
       <c r="C190" t="s">
         <v>268</v>
       </c>
       <c r="D190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>313</v>
+      </c>
+      <c r="B191" t="s">
+        <v>293</v>
+      </c>
+      <c r="C191" t="s">
+        <v>270</v>
+      </c>
+      <c r="D191" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>313</v>
+      </c>
+      <c r="B192" t="s">
         <v>318</v>
       </c>
-      <c r="B191" t="s">
-        <v>296</v>
-      </c>
-      <c r="C191" t="s">
-        <v>271</v>
-      </c>
-      <c r="D191" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>318</v>
-      </c>
-      <c r="B192" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>313</v>
+      </c>
+      <c r="B193" t="s">
+        <v>299</v>
+      </c>
+      <c r="C193" t="s">
+        <v>319</v>
+      </c>
+      <c r="D193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>313</v>
+      </c>
+      <c r="B194" t="s">
+        <v>303</v>
+      </c>
+      <c r="C194" t="s">
+        <v>274</v>
+      </c>
+      <c r="D194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>313</v>
+      </c>
+      <c r="B195" t="s">
+        <v>305</v>
+      </c>
+      <c r="C195" t="s">
+        <v>276</v>
+      </c>
+      <c r="D195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>313</v>
+      </c>
+      <c r="B196" t="s">
+        <v>311</v>
+      </c>
+      <c r="C196" t="s">
+        <v>278</v>
+      </c>
+      <c r="D196" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>320</v>
+      </c>
+      <c r="B197" t="s">
+        <v>321</v>
+      </c>
+      <c r="C197" t="s">
         <v>322</v>
       </c>
-      <c r="C192" t="s">
-        <v>273</v>
-      </c>
-      <c r="D192" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>318</v>
-      </c>
-      <c r="B193" t="s">
-        <v>298</v>
-      </c>
-      <c r="C193" t="s">
-        <v>275</v>
-      </c>
-      <c r="D193" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>318</v>
-      </c>
-      <c r="B194" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
-        <v>318</v>
-      </c>
-      <c r="B195" t="s">
-        <v>304</v>
-      </c>
-      <c r="C195" t="s">
-        <v>324</v>
-      </c>
-      <c r="D195" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>318</v>
-      </c>
-      <c r="B196" t="s">
-        <v>308</v>
-      </c>
-      <c r="C196" t="s">
-        <v>279</v>
-      </c>
-      <c r="D196" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>318</v>
-      </c>
-      <c r="B197" t="s">
-        <v>310</v>
-      </c>
-      <c r="C197" t="s">
-        <v>281</v>
-      </c>
       <c r="D197" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B198" t="s">
         <v>316</v>
       </c>
       <c r="C198" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D198" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>320</v>
+      </c>
+      <c r="B199" t="s">
+        <v>291</v>
+      </c>
+      <c r="C199" t="s">
+        <v>292</v>
+      </c>
+      <c r="D199" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>320</v>
+      </c>
+      <c r="B200" t="s">
+        <v>324</v>
+      </c>
+      <c r="C200" t="s">
+        <v>312</v>
+      </c>
+      <c r="D200" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>320</v>
+      </c>
+      <c r="B201" t="s">
+        <v>305</v>
+      </c>
+      <c r="C201" t="s">
+        <v>306</v>
+      </c>
+      <c r="D201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>320</v>
+      </c>
+      <c r="B202" t="s">
         <v>325</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C202" t="s">
+        <v>294</v>
+      </c>
+      <c r="D202" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>350</v>
+      </c>
+      <c r="B203" t="s">
+        <v>351</v>
+      </c>
+      <c r="C203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>350</v>
+      </c>
+      <c r="B204" t="s">
+        <v>45</v>
+      </c>
+      <c r="D204" t="str">
+        <f t="shared" ref="D204:D249" si="0">"["&amp;B204&amp;"]{.underline}"</f>
+        <v>[[article]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>350</v>
+      </c>
+      <c r="B205" t="s">
+        <v>352</v>
+      </c>
+      <c r="D205" t="str">
+        <f t="shared" si="0"/>
+        <v>[[audiovisual]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>350</v>
+      </c>
+      <c r="B206" t="s">
+        <v>353</v>
+      </c>
+      <c r="C206" t="s">
         <v>326</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D206" t="str">
+        <f t="shared" si="0"/>
+        <v>[[bill]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>350</v>
+      </c>
+      <c r="B207" t="s">
+        <v>354</v>
+      </c>
+      <c r="C207" t="s">
         <v>327</v>
-      </c>
-      <c r="D199" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>325</v>
-      </c>
-      <c r="B200" t="s">
-        <v>321</v>
-      </c>
-      <c r="C200" t="s">
-        <v>328</v>
-      </c>
-      <c r="D200" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>325</v>
-      </c>
-      <c r="B201" t="s">
-        <v>296</v>
-      </c>
-      <c r="C201" t="s">
-        <v>297</v>
-      </c>
-      <c r="D201" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>325</v>
-      </c>
-      <c r="B202" t="s">
-        <v>329</v>
-      </c>
-      <c r="C202" t="s">
-        <v>317</v>
-      </c>
-      <c r="D202" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>325</v>
-      </c>
-      <c r="B203" t="s">
-        <v>310</v>
-      </c>
-      <c r="C203" t="s">
-        <v>311</v>
-      </c>
-      <c r="D203" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
-        <v>325</v>
-      </c>
-      <c r="B204" t="s">
-        <v>330</v>
-      </c>
-      <c r="C204" t="s">
-        <v>299</v>
-      </c>
-      <c r="D204" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>355</v>
-      </c>
-      <c r="B205" t="s">
-        <v>356</v>
-      </c>
-      <c r="C205" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>355</v>
-      </c>
-      <c r="B206" t="s">
-        <v>45</v>
-      </c>
-      <c r="D206" t="str">
-        <f t="shared" ref="D206:D251" si="0">"["&amp;B206&amp;"]{.underline}"</f>
-        <v>[[article]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
-        <v>355</v>
-      </c>
-      <c r="B207" t="s">
-        <v>357</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="0"/>
-        <v>[[audiovisual]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[blog]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="C208" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D208" t="str">
         <f t="shared" si="0"/>
-        <v>[[bill]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[book]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>350</v>
+      </c>
+      <c r="B209" t="s">
         <v>355</v>
-      </c>
-      <c r="B209" t="s">
-        <v>359</v>
-      </c>
-      <c r="C209" t="s">
-        <v>332</v>
       </c>
       <c r="D209" t="str">
         <f t="shared" si="0"/>
-        <v>[[blog]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[catalogue]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
-      </c>
-      <c r="C210" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="0"/>
-        <v>[[book]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[conference]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B211" t="s">
-        <v>360</v>
+        <v>50</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="0"/>
-        <v>[[catalogue]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[conference-paper]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B212" t="s">
-        <v>361</v>
+        <v>357</v>
+      </c>
+      <c r="C212" t="s">
+        <v>329</v>
       </c>
       <c r="D212" t="str">
         <f t="shared" si="0"/>
-        <v>[[conference]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[data]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B213" t="s">
-        <v>51</v>
+        <v>358</v>
+      </c>
+      <c r="C213" t="s">
+        <v>330</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="0"/>
-        <v>[[conference-paper]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[database]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B214" t="s">
-        <v>362</v>
-      </c>
-      <c r="C214" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="D214" t="str">
         <f t="shared" si="0"/>
-        <v>[[data]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[dictionary]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B215" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C215" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="D215" t="str">
         <f t="shared" si="0"/>
-        <v>[[database]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[edited-work]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D216" t="str">
         <f t="shared" si="0"/>
-        <v>[[dictionary]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[encyclopedia]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C217" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="D217" t="str">
         <f t="shared" si="0"/>
-        <v>[[edited-work]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[film-broadcast]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>53</v>
+      </c>
+      <c r="C218" t="s">
+        <v>332</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="0"/>
-        <v>[[encyclopedia]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[generic]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B219" t="s">
-        <v>367</v>
-      </c>
-      <c r="C219" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="D219" t="str">
         <f t="shared" si="0"/>
-        <v>[[film-broadcast]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[government-document]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>364</v>
       </c>
       <c r="C220" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D220" t="str">
         <f t="shared" si="0"/>
-        <v>[[generic]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[grant]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B221" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D221" t="str">
         <f t="shared" si="0"/>
-        <v>[[government-document]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[hearing]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B222" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C222" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="0"/>
-        <v>[[grant]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[historical-work]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B223" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="0"/>
-        <v>[[hearing]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[legal-case]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B224" t="s">
-        <v>371</v>
-      </c>
-      <c r="C224" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="D224" t="str">
         <f t="shared" si="0"/>
-        <v>[[historical-work]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[legal-rule]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B225" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D225" t="str">
         <f t="shared" si="0"/>
-        <v>[[legal-case]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[magazine-article]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B226" t="s">
-        <v>373</v>
+        <v>56</v>
+      </c>
+      <c r="C226" t="s">
+        <v>334</v>
       </c>
       <c r="D226" t="str">
         <f t="shared" si="0"/>
-        <v>[[legal-rule]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[manual]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B227" t="s">
-        <v>374</v>
+        <v>370</v>
+      </c>
+      <c r="C227" t="s">
+        <v>335</v>
       </c>
       <c r="D227" t="str">
         <f t="shared" si="0"/>
-        <v>[[magazine-article]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[map]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B228" t="s">
-        <v>58</v>
+        <v>371</v>
       </c>
       <c r="C228" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D228" t="str">
         <f t="shared" si="0"/>
-        <v>[[manual]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[multimedia]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B229" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C229" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D229" t="str">
         <f t="shared" si="0"/>
-        <v>[[map]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[music]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B230" t="s">
-        <v>376</v>
-      </c>
-      <c r="C230" t="s">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="0"/>
-        <v>[[multimedia]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[newspaper-article]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B231" t="s">
-        <v>377</v>
-      </c>
-      <c r="C231" t="s">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="0"/>
-        <v>[[music]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[pamphlet]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="0"/>
-        <v>[[newspaper-article]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[patent]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B233" t="s">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="0"/>
-        <v>[[pamphlet]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[personal-communication]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B234" t="s">
-        <v>379</v>
+        <v>60</v>
+      </c>
+      <c r="C234" t="s">
+        <v>338</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="0"/>
-        <v>[[patent]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[proceedings]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B235" t="s">
-        <v>380</v>
+        <v>62</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="0"/>
-        <v>[[personal-communication]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[report]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B236" t="s">
-        <v>64</v>
-      </c>
-      <c r="C236" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="D236" t="str">
         <f t="shared" si="0"/>
-        <v>[[proceedings]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[serial]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B237" t="s">
-        <v>66</v>
+        <v>377</v>
+      </c>
+      <c r="C237" t="s">
+        <v>347</v>
       </c>
       <c r="D237" t="str">
         <f t="shared" si="0"/>
-        <v>[[report]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[slides]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>378</v>
+      </c>
+      <c r="C238" t="s">
+        <v>339</v>
       </c>
       <c r="D238" t="str">
         <f t="shared" si="0"/>
-        <v>[[serial]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[software]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B239" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C239" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="D239" t="str">
         <f t="shared" si="0"/>
-        <v>[[slides]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[software-code]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C240" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="0"/>
-        <v>[[software]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[software-container]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C241" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="0"/>
-        <v>[[software-code]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[software-executable]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B242" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C242" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="D242" t="str">
         <f t="shared" si="0"/>
-        <v>[[software-container]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[software-virtual-machine]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B243" t="s">
-        <v>386</v>
-      </c>
-      <c r="C243" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="D243" t="str">
         <f t="shared" si="0"/>
-        <v>[[software-executable]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[sound-recording]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B244" t="s">
-        <v>387</v>
-      </c>
-      <c r="C244" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="D244" t="str">
         <f t="shared" si="0"/>
-        <v>[[software-virtual-machine]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[standard]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B245" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D245" t="str">
         <f t="shared" si="0"/>
-        <v>[[sound-recording]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[statute]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B246" t="s">
-        <v>389</v>
+        <v>57</v>
+      </c>
+      <c r="C246" t="s">
+        <v>342</v>
       </c>
       <c r="D246" t="str">
         <f t="shared" si="0"/>
-        <v>[[standard]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[thesis]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B247" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="D247" t="str">
         <f t="shared" si="0"/>
-        <v>[[statute]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[unpublished]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>386</v>
       </c>
       <c r="C248" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="0"/>
-        <v>[[thesis]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
+        <v>[[video]{.underline}]{.underline}</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B249" t="s">
-        <v>68</v>
+        <v>387</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="0"/>
-        <v>[[unpublished]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>355</v>
-      </c>
-      <c r="B250" t="s">
-        <v>391</v>
-      </c>
-      <c r="C250" t="s">
-        <v>348</v>
-      </c>
-      <c r="D250" t="str">
-        <f t="shared" si="0"/>
-        <v>[[video]{.underline}]{.underline}</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
-        <v>355</v>
-      </c>
-      <c r="B251" t="s">
-        <v>392</v>
-      </c>
-      <c r="D251" t="str">
-        <f t="shared" si="0"/>
         <v>[[website]{.underline}]{.underline}</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-raw/crosswalk_tables.xlsx
+++ b/data-raw/crosswalk_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Documents\R\Projects\cffr\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D622758-116F-4578-B83A-ABDADB5DA526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537083C8-1A37-46C7-853A-A9D8E0A9C318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="293">
   <si>
     <t>table</t>
   </si>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>[address]{.underline} property of [publisher]{.underline}</t>
-  </si>
-  <si>
-    <t>See **Note** on [**\@article**](link_to_article)</t>
   </si>
   <si>
     <t>model_booklet</t>
@@ -1243,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C187" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,32 +1310,32 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N2" s="1"/>
     </row>
@@ -1370,38 +1367,38 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -1416,10 +1413,10 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1439,10 +1436,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -1481,18 +1478,18 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1509,23 +1506,23 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1540,7 +1537,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1548,7 +1545,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1572,7 +1569,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N11" s="1"/>
     </row>
@@ -1584,7 +1581,7 @@
         <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1614,40 +1611,40 @@
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -1658,40 +1655,40 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -1702,29 +1699,29 @@
         <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N16" s="1"/>
     </row>
@@ -1741,15 +1738,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1762,18 +1759,18 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1791,23 +1788,23 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1827,7 +1824,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1843,23 +1840,23 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1872,40 +1869,40 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -1919,20 +1916,20 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N23" s="1"/>
     </row>
@@ -1944,26 +1941,26 @@
         <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1976,40 +1973,40 @@
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="K25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="M25" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -2244,7 +2241,7 @@
         <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2294,7 +2291,7 @@
         <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2432,7 +2429,7 @@
         <v>90</v>
       </c>
       <c r="D61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -2537,7 +2534,7 @@
         <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2688,7 +2685,7 @@
         <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C84" t="s">
         <v>78</v>
@@ -2699,7 +2696,7 @@
         <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C85" t="s">
         <v>96</v>
@@ -2710,7 +2707,7 @@
         <v>127</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C86" t="s">
         <v>88</v>
@@ -2721,7 +2718,7 @@
         <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
         <v>101</v>
@@ -2801,13 +2798,13 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
         <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -2815,13 +2812,13 @@
         <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95" t="s">
         <v>83</v>
       </c>
       <c r="D95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -2829,7 +2826,7 @@
         <v>130</v>
       </c>
       <c r="B96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C96" t="s">
         <v>96</v>
@@ -2840,7 +2837,7 @@
         <v>130</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
         <v>94</v>
@@ -2851,7 +2848,7 @@
         <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C98" t="s">
         <v>101</v>
@@ -2862,13 +2859,13 @@
         <v>130</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
         <v>80</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
@@ -2876,13 +2873,13 @@
         <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C100" t="s">
         <v>129</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
@@ -2970,29 +2967,29 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B109" t="s">
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" t="s">
         <v>96</v>
@@ -3000,7 +2997,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111" t="s">
         <v>17</v>
@@ -3011,7 +3008,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
         <v>32</v>
@@ -3022,18 +3019,18 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114" t="s">
         <v>19</v>
@@ -3044,7 +3041,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B116" t="s">
         <v>18</v>
@@ -3066,66 +3063,66 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" t="s">
         <v>138</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>139</v>
       </c>
-      <c r="C117" t="s">
-        <v>140</v>
-      </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C118" t="s">
         <v>78</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
         <v>96</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B120" t="s">
+        <v>282</v>
+      </c>
+      <c r="C120" t="s">
+        <v>285</v>
+      </c>
+      <c r="D120" t="s">
         <v>283</v>
-      </c>
-      <c r="C120" t="s">
-        <v>286</v>
-      </c>
-      <c r="D120" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
         <v>101</v>
@@ -3133,7 +3130,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
         <v>22</v>
@@ -3142,12 +3139,12 @@
         <v>83</v>
       </c>
       <c r="D122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B123" t="s">
         <v>24</v>
@@ -3156,12 +3153,12 @@
         <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" t="s">
         <v>23</v>
@@ -3170,23 +3167,23 @@
         <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B125" t="s">
         <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -3197,18 +3194,18 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
@@ -3219,7 +3216,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
         <v>31</v>
@@ -3230,7 +3227,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
         <v>21</v>
@@ -3241,7 +3238,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>18</v>
@@ -3252,91 +3249,91 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132" t="s">
         <v>49</v>
       </c>
       <c r="C132" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" t="s">
         <v>144</v>
-      </c>
-      <c r="D132" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B133" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C133" t="s">
         <v>78</v>
       </c>
       <c r="D133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s">
         <v>96</v>
       </c>
       <c r="D134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C135" t="s">
         <v>79</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
         <v>94</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C137" t="s">
         <v>101</v>
       </c>
       <c r="D137" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
         <v>22</v>
@@ -3345,12 +3342,12 @@
         <v>83</v>
       </c>
       <c r="D138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
@@ -3359,12 +3356,12 @@
         <v>100</v>
       </c>
       <c r="D139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
@@ -3373,37 +3370,37 @@
         <v>92</v>
       </c>
       <c r="D140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
         <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
         <v>29</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>30</v>
@@ -3414,7 +3411,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>25</v>
@@ -3425,7 +3422,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -3436,7 +3433,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
         <v>28</v>
@@ -3447,7 +3444,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
         <v>19</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s">
         <v>18</v>
@@ -3467,40 +3464,40 @@
         <v>91</v>
       </c>
       <c r="D148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
         <v>53</v>
       </c>
       <c r="C149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D149" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C150" t="s">
         <v>96</v>
       </c>
       <c r="D150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
@@ -3509,12 +3506,12 @@
         <v>78</v>
       </c>
       <c r="D151" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B152" t="s">
         <v>31</v>
@@ -3523,26 +3520,26 @@
         <v>86</v>
       </c>
       <c r="D152" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
       </c>
       <c r="C153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D153" t="s">
         <v>288</v>
-      </c>
-      <c r="D153" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154" t="s">
         <v>28</v>
@@ -3551,12 +3548,12 @@
         <v>82</v>
       </c>
       <c r="D154" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155" t="s">
         <v>19</v>
@@ -3567,7 +3564,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B157" t="s">
         <v>18</v>
@@ -3587,107 +3584,107 @@
         <v>91</v>
       </c>
       <c r="D157" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158" t="s">
         <v>55</v>
       </c>
       <c r="C158" t="s">
+        <v>148</v>
+      </c>
+      <c r="D158" t="s">
         <v>149</v>
-      </c>
-      <c r="D158" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B159" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s">
         <v>78</v>
       </c>
       <c r="D159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C160" t="s">
         <v>96</v>
       </c>
       <c r="D160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B161" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C161" t="s">
         <v>86</v>
       </c>
       <c r="D161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C162" t="s">
         <v>101</v>
       </c>
       <c r="D162" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
       </c>
       <c r="C163" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D163" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B164" t="s">
         <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B165" t="s">
         <v>19</v>
@@ -3698,7 +3695,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B166" t="s">
         <v>18</v>
@@ -3707,26 +3704,26 @@
         <v>91</v>
       </c>
       <c r="D166" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B167" t="s">
         <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D167" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B168" t="s">
         <v>17</v>
@@ -3735,12 +3732,12 @@
         <v>78</v>
       </c>
       <c r="D168" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B169" t="s">
         <v>15</v>
@@ -3749,12 +3746,12 @@
         <v>96</v>
       </c>
       <c r="D169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B170" t="s">
         <v>32</v>
@@ -3763,12 +3760,12 @@
         <v>84</v>
       </c>
       <c r="D170" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B171" t="s">
         <v>19</v>
@@ -3779,7 +3776,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
@@ -3790,7 +3787,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
@@ -3799,54 +3796,54 @@
         <v>91</v>
       </c>
       <c r="D173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B174" t="s">
         <v>59</v>
       </c>
       <c r="C174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D174" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B175" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C175" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D175" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B176" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C176" t="s">
         <v>101</v>
       </c>
       <c r="D176" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B177" t="s">
         <v>22</v>
@@ -3855,12 +3852,12 @@
         <v>83</v>
       </c>
       <c r="D177" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B178" t="s">
         <v>24</v>
@@ -3869,12 +3866,12 @@
         <v>100</v>
       </c>
       <c r="D178" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B179" t="s">
         <v>23</v>
@@ -3883,12 +3880,12 @@
         <v>92</v>
       </c>
       <c r="D179" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B180" t="s">
         <v>26</v>
@@ -3897,23 +3894,23 @@
         <v>79</v>
       </c>
       <c r="D180" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
@@ -3924,7 +3921,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B183" t="s">
         <v>31</v>
@@ -3933,12 +3930,12 @@
         <v>86</v>
       </c>
       <c r="D183" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B184" t="s">
         <v>21</v>
@@ -3947,12 +3944,12 @@
         <v>94</v>
       </c>
       <c r="D184" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -3961,93 +3958,93 @@
         <v>91</v>
       </c>
       <c r="D185" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B186" t="s">
         <v>61</v>
       </c>
       <c r="C186" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D186" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B187" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
       </c>
       <c r="D187" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B188" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C188" t="s">
         <v>96</v>
       </c>
       <c r="D188" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B189" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C189" t="s">
         <v>86</v>
       </c>
       <c r="D189" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B190" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
         <v>101</v>
       </c>
       <c r="D190" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B191" t="s">
         <v>29</v>
       </c>
       <c r="C191" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B192" t="s">
         <v>23</v>
@@ -4056,23 +4053,23 @@
         <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B193" t="s">
         <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B194" t="s">
         <v>19</v>
@@ -4080,13 +4077,10 @@
       <c r="C194" t="s">
         <v>90</v>
       </c>
-      <c r="D194" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
@@ -4095,57 +4089,57 @@
         <v>91</v>
       </c>
       <c r="D195" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B196" t="s">
         <v>63</v>
       </c>
       <c r="C196" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D196" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B197" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C197" t="s">
         <v>78</v>
       </c>
       <c r="D197" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B198" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C198" t="s">
         <v>96</v>
       </c>
       <c r="D198" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B199" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C199" t="s">
         <v>91</v>
@@ -4153,7 +4147,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B200" t="s">
         <v>19</v>
@@ -4164,7 +4158,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B201" t="s">
         <v>16</v>
@@ -4175,588 +4169,588 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
+        <v>159</v>
+      </c>
+      <c r="B202" t="s">
         <v>160</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>161</v>
-      </c>
-      <c r="C202" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B203" t="s">
         <v>41</v>
       </c>
       <c r="D203" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B204" t="s">
+        <v>163</v>
+      </c>
+      <c r="D204" t="s">
         <v>164</v>
-      </c>
-      <c r="D204" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B205" t="s">
+        <v>165</v>
+      </c>
+      <c r="C205" t="s">
         <v>166</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>167</v>
-      </c>
-      <c r="D205" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B206" t="s">
+        <v>168</v>
+      </c>
+      <c r="C206" t="s">
         <v>169</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>170</v>
-      </c>
-      <c r="D206" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B207" t="s">
         <v>43</v>
       </c>
       <c r="C207" t="s">
+        <v>171</v>
+      </c>
+      <c r="D207" t="s">
         <v>172</v>
-      </c>
-      <c r="D207" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B208" t="s">
+        <v>173</v>
+      </c>
+      <c r="D208" t="s">
         <v>174</v>
-      </c>
-      <c r="D208" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B209" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B210" t="s">
         <v>48</v>
       </c>
       <c r="D210" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B211" t="s">
+        <v>177</v>
+      </c>
+      <c r="C211" t="s">
         <v>178</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>179</v>
-      </c>
-      <c r="D211" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B212" t="s">
+        <v>180</v>
+      </c>
+      <c r="C212" t="s">
         <v>181</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>182</v>
-      </c>
-      <c r="D212" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B213" t="s">
+        <v>183</v>
+      </c>
+      <c r="D213" t="s">
         <v>184</v>
-      </c>
-      <c r="D213" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B214" t="s">
+        <v>185</v>
+      </c>
+      <c r="C214" t="s">
         <v>186</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>187</v>
-      </c>
-      <c r="D214" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B215" t="s">
+        <v>188</v>
+      </c>
+      <c r="D215" t="s">
         <v>189</v>
-      </c>
-      <c r="D215" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B216" t="s">
+        <v>190</v>
+      </c>
+      <c r="C216" t="s">
         <v>191</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>192</v>
-      </c>
-      <c r="D216" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B217" t="s">
         <v>50</v>
       </c>
       <c r="C217" t="s">
+        <v>193</v>
+      </c>
+      <c r="D217" t="s">
         <v>194</v>
-      </c>
-      <c r="D217" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B218" t="s">
+        <v>195</v>
+      </c>
+      <c r="D218" t="s">
         <v>196</v>
-      </c>
-      <c r="D218" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B219" t="s">
+        <v>197</v>
+      </c>
+      <c r="C219" t="s">
         <v>198</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>199</v>
-      </c>
-      <c r="D219" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B220" t="s">
+        <v>200</v>
+      </c>
+      <c r="D220" t="s">
         <v>201</v>
-      </c>
-      <c r="D220" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B221" t="s">
+        <v>202</v>
+      </c>
+      <c r="C221" t="s">
         <v>203</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>204</v>
-      </c>
-      <c r="D221" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B222" t="s">
+        <v>205</v>
+      </c>
+      <c r="D222" t="s">
         <v>206</v>
-      </c>
-      <c r="D222" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B223" t="s">
+        <v>207</v>
+      </c>
+      <c r="D223" t="s">
         <v>208</v>
-      </c>
-      <c r="D223" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B224" t="s">
+        <v>209</v>
+      </c>
+      <c r="D224" t="s">
         <v>210</v>
-      </c>
-      <c r="D224" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B225" t="s">
         <v>54</v>
       </c>
       <c r="C225" t="s">
+        <v>211</v>
+      </c>
+      <c r="D225" t="s">
         <v>212</v>
-      </c>
-      <c r="D225" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B226" t="s">
+        <v>213</v>
+      </c>
+      <c r="C226" t="s">
         <v>214</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>215</v>
-      </c>
-      <c r="D226" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B227" t="s">
+        <v>216</v>
+      </c>
+      <c r="C227" t="s">
         <v>217</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>218</v>
-      </c>
-      <c r="D227" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B228" t="s">
+        <v>219</v>
+      </c>
+      <c r="C228" t="s">
         <v>220</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>221</v>
-      </c>
-      <c r="D228" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B229" t="s">
+        <v>222</v>
+      </c>
+      <c r="D229" t="s">
         <v>223</v>
-      </c>
-      <c r="D229" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B230" t="s">
         <v>46</v>
       </c>
       <c r="D230" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B231" t="s">
+        <v>225</v>
+      </c>
+      <c r="D231" t="s">
         <v>226</v>
-      </c>
-      <c r="D231" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B232" t="s">
+        <v>227</v>
+      </c>
+      <c r="D232" t="s">
         <v>228</v>
-      </c>
-      <c r="D232" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B233" t="s">
         <v>60</v>
       </c>
       <c r="C233" t="s">
+        <v>229</v>
+      </c>
+      <c r="D233" t="s">
         <v>230</v>
-      </c>
-      <c r="D233" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B234" t="s">
         <v>62</v>
       </c>
       <c r="D234" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B235" t="s">
+        <v>232</v>
+      </c>
+      <c r="D235" t="s">
         <v>233</v>
-      </c>
-      <c r="D235" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B236" t="s">
+        <v>234</v>
+      </c>
+      <c r="C236" t="s">
         <v>235</v>
       </c>
-      <c r="C236" t="s">
+      <c r="D236" t="s">
         <v>236</v>
-      </c>
-      <c r="D236" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237" t="s">
         <v>238</v>
       </c>
-      <c r="C237" t="s">
+      <c r="D237" t="s">
         <v>239</v>
-      </c>
-      <c r="D237" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" t="s">
         <v>241</v>
       </c>
-      <c r="C238" t="s">
+      <c r="D238" t="s">
         <v>242</v>
-      </c>
-      <c r="D238" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B239" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239" t="s">
         <v>244</v>
       </c>
-      <c r="C239" t="s">
+      <c r="D239" t="s">
         <v>245</v>
-      </c>
-      <c r="D239" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B240" t="s">
+        <v>246</v>
+      </c>
+      <c r="C240" t="s">
         <v>247</v>
       </c>
-      <c r="C240" t="s">
+      <c r="D240" t="s">
         <v>248</v>
-      </c>
-      <c r="D240" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B241" t="s">
+        <v>249</v>
+      </c>
+      <c r="C241" t="s">
         <v>250</v>
       </c>
-      <c r="C241" t="s">
+      <c r="D241" t="s">
         <v>251</v>
-      </c>
-      <c r="D241" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B242" t="s">
+        <v>252</v>
+      </c>
+      <c r="D242" t="s">
         <v>253</v>
-      </c>
-      <c r="D242" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B243" t="s">
+        <v>254</v>
+      </c>
+      <c r="D243" t="s">
         <v>255</v>
-      </c>
-      <c r="D243" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B244" t="s">
+        <v>256</v>
+      </c>
+      <c r="D244" t="s">
         <v>257</v>
-      </c>
-      <c r="D244" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B245" t="s">
         <v>56</v>
       </c>
       <c r="C245" t="s">
+        <v>258</v>
+      </c>
+      <c r="D245" t="s">
         <v>259</v>
-      </c>
-      <c r="D245" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B246" t="s">
         <v>64</v>
       </c>
       <c r="D246" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B247" t="s">
+        <v>261</v>
+      </c>
+      <c r="C247" t="s">
         <v>262</v>
       </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>263</v>
-      </c>
-      <c r="D247" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B248" t="s">
+        <v>264</v>
+      </c>
+      <c r="D248" t="s">
         <v>265</v>
-      </c>
-      <c r="D248" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
